--- a/Test Data/Gallery_SlotCards_ProPanels.xlsx
+++ b/Test Data/Gallery_SlotCards_ProPanels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3985C7F0-73D5-4C2D-B8AA-1BF2EA8449BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF7055B-4AB5-4730-A673-95EFACDFC5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
-    <sheet name="Slot Cards 215 Panel" sheetId="11" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="15" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId3"/>
+    <sheet name="Czech" sheetId="16" r:id="rId4"/>
+    <sheet name="Slot Cards 215 Panel" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
   <si>
     <t>Wg</t>
   </si>
@@ -84,6 +85,12 @@
   </si>
   <si>
     <t>NGC-3478/T2265</t>
+  </si>
+  <si>
+    <t>Czech Market</t>
+  </si>
+  <si>
+    <t>NGC-3477/T1734</t>
   </si>
 </sst>
 </file>
@@ -508,7 +515,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D952739F-A903-4682-A1DB-45C1FE276197}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -703,6 +710,205 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCEC48D-C8B0-4A12-B0C4-A6E934019E2D}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A694BEDF-545C-4158-BDCD-F8A127BA31AE}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB38B489-B484-46F2-8B2F-6916531007B8}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -797,101 +1003,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCEC48D-C8B0-4A12-B0C4-A6E934019E2D}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Test Data/Gallery_SlotCards_ProPanels.xlsx
+++ b/Test Data/Gallery_SlotCards_ProPanels.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF7055B-4AB5-4730-A673-95EFACDFC5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDE94CF-BD2B-41F8-8FDE-00EF36994C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="15" r:id="rId3"/>
     <sheet name="Czech" sheetId="16" r:id="rId4"/>
-    <sheet name="Slot Cards 215 Panel" sheetId="11" r:id="rId5"/>
+    <sheet name="Swiss" sheetId="17" r:id="rId5"/>
+    <sheet name="Slot Cards 215 Panel" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
   <si>
     <t>Wg</t>
   </si>
@@ -91,6 +92,12 @@
   </si>
   <si>
     <t>NGC-3477/T1734</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2344</t>
   </si>
 </sst>
 </file>
@@ -810,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A694BEDF-545C-4158-BDCD-F8A127BA31AE}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,6 +916,103 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF49B590-FEA1-42F3-A9E3-46CA2D3E489B}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB38B489-B484-46F2-8B2F-6916531007B8}">
   <dimension ref="A1:D10"/>
   <sheetViews>

--- a/Test Data/Gallery_SlotCards_ProPanels.xlsx
+++ b/Test Data/Gallery_SlotCards_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDE94CF-BD2B-41F8-8FDE-00EF36994C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07171CA-5D40-4F20-9828-0320C8950891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Czech" sheetId="16" r:id="rId4"/>
     <sheet name="Swiss" sheetId="17" r:id="rId5"/>
     <sheet name="Slot Cards 215 Panel" sheetId="11" r:id="rId6"/>
+    <sheet name="Portugal" sheetId="18" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
   <si>
     <t>Wg</t>
   </si>
@@ -98,6 +99,12 @@
   </si>
   <si>
     <t>NGC-3476/T2344</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2404</t>
   </si>
 </sst>
 </file>
@@ -624,7 +631,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF49B590-FEA1-42F3-A9E3-46CA2D3E489B}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1107,4 +1114,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725C435D-AB2F-40B7-AC34-DB1A8901D59B}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_SlotCards_ProPanels.xlsx
+++ b/Test Data/Gallery_SlotCards_ProPanels.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07171CA-5D40-4F20-9828-0320C8950891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1073ACD-4D9A-4657-B2EE-CF9D396250F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="15" r:id="rId3"/>
-    <sheet name="Czech" sheetId="16" r:id="rId4"/>
-    <sheet name="Swiss" sheetId="17" r:id="rId5"/>
-    <sheet name="Slot Cards 215 Panel" sheetId="11" r:id="rId6"/>
+    <sheet name="Czech" sheetId="16" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="17" r:id="rId4"/>
+    <sheet name="Germany_SlotCards215Panel" sheetId="11" r:id="rId5"/>
+    <sheet name="Czech_SlotCards215Panel" sheetId="19" r:id="rId6"/>
     <sheet name="Portugal" sheetId="18" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
   <si>
     <t>Wg</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>NGC-3479/T2404</t>
+  </si>
+  <si>
+    <t>NGC-3475/T1730 and applicable to ProLite Panel as well</t>
+  </si>
+  <si>
+    <t>NGC-3477/T1734 and applicable to ProLite Panel as well</t>
   </si>
 </sst>
 </file>
@@ -724,108 +730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCEC48D-C8B0-4A12-B0C4-A6E934019E2D}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A694BEDF-545C-4158-BDCD-F8A127BA31AE}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,7 +831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF49B590-FEA1-42F3-A9E3-46CA2D3E489B}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -1019,7 +928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB38B489-B484-46F2-8B2F-6916531007B8}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -1070,7 +979,104 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AE4A25-5E1B-427C-A8A4-B822AB50D5AF}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1120,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725C435D-AB2F-40B7-AC34-DB1A8901D59B}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_SlotCards_ProPanels.xlsx
+++ b/Test Data/Gallery_SlotCards_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1073ACD-4D9A-4657-B2EE-CF9D396250F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA86AD-3B0B-44E4-93F0-91F263FE6C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Germany_SlotCards215Panel" sheetId="11" r:id="rId5"/>
     <sheet name="Czech_SlotCards215Panel" sheetId="19" r:id="rId6"/>
     <sheet name="Portugal" sheetId="18" r:id="rId7"/>
+    <sheet name="Slovakia" sheetId="20" r:id="rId8"/>
+    <sheet name="Slovakia_SlotCards215Panel" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -111,6 +113,12 @@
   </si>
   <si>
     <t>NGC-3477/T1734 and applicable to ProLite Panel as well</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3222</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AE4A25-5E1B-427C-A8A4-B822AB50D5AF}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,7 +1135,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1217,4 +1225,203 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DF4413-05DF-43C2-84C0-265D4DE59F9C}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34550D3-FC6F-40C5-877E-D1E8A7E002D6}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_SlotCards_ProPanels.xlsx
+++ b/Test Data/Gallery_SlotCards_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA86AD-3B0B-44E4-93F0-91F263FE6C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9F347C-FB0A-4CC4-A9D0-82D33ACCFDC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Portugal" sheetId="18" r:id="rId7"/>
     <sheet name="Slovakia" sheetId="20" r:id="rId8"/>
     <sheet name="Slovakia_SlotCards215Panel" sheetId="21" r:id="rId9"/>
+    <sheet name="Italy" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -119,13 +120,19 @@
   </si>
   <si>
     <t>NGC-2930/T3222</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2155</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +151,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -226,6 +240,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,6 +655,103 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236EBC6A-A04F-4ABE-A22A-71951F5BE295}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D952739F-A903-4682-A1DB-45C1FE276197}">
   <dimension ref="A1:D10"/>
@@ -941,7 +1053,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,6 +1147,302 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AE4A25-5E1B-427C-A8A4-B822AB50D5AF}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725C435D-AB2F-40B7-AC34-DB1A8901D59B}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DF4413-05DF-43C2-84C0-265D4DE59F9C}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34550D3-FC6F-40C5-877E-D1E8A7E002D6}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1062,302 +1470,6 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725C435D-AB2F-40B7-AC34-DB1A8901D59B}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DF4413-05DF-43C2-84C0-265D4DE59F9C}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34550D3-FC6F-40C5-877E-D1E8A7E002D6}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="10" t="s">

--- a/Test Data/Gallery_SlotCards_ProPanels.xlsx
+++ b/Test Data/Gallery_SlotCards_ProPanels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9F347C-FB0A-4CC4-A9D0-82D33ACCFDC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9630A870-0059-4AC6-AA32-05EF2A088E86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Slovakia" sheetId="20" r:id="rId8"/>
     <sheet name="Slovakia_SlotCards215Panel" sheetId="21" r:id="rId9"/>
     <sheet name="Italy" sheetId="22" r:id="rId10"/>
+    <sheet name="Spain" sheetId="23" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -126,6 +127,12 @@
   </si>
   <si>
     <t>NGC-3145/T2155</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3106/T2059</t>
   </si>
 </sst>
 </file>
@@ -234,13 +241,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,12 +577,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -584,10 +591,10 @@
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -659,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236EBC6A-A04F-4ABE-A22A-71951F5BE295}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,12 +679,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -686,10 +693,10 @@
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -705,8 +712,104 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D19457-4B50-40A8-BA77-AF9FDEA0010A}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -769,12 +872,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -783,10 +886,10 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -866,12 +969,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -880,10 +983,10 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -968,12 +1071,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -982,10 +1085,10 @@
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1065,12 +1168,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1079,10 +1182,10 @@
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1162,12 +1265,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1176,10 +1279,10 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1259,12 +1362,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1273,10 +1376,10 @@
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1356,12 +1459,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1370,10 +1473,10 @@
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1446,7 +1549,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1458,12 +1561,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1472,10 +1575,10 @@
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">

--- a/Test Data/Gallery_SlotCards_ProPanels.xlsx
+++ b/Test Data/Gallery_SlotCards_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9630A870-0059-4AC6-AA32-05EF2A088E86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA122148-0A44-4467-97F5-6A1CF163527A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Slovakia_SlotCards215Panel" sheetId="21" r:id="rId9"/>
     <sheet name="Italy" sheetId="22" r:id="rId10"/>
     <sheet name="Spain" sheetId="23" r:id="rId11"/>
+    <sheet name="Turkey" sheetId="24" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -133,6 +134,12 @@
   </si>
   <si>
     <t>NGC-3106/T2059</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3320</t>
   </si>
 </sst>
 </file>
@@ -763,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D19457-4B50-40A8-BA77-AF9FDEA0010A}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,6 +817,102 @@
       </c>
       <c r="B4" s="9" t="s">
         <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C00B73-D5B6-4F07-8856-8A8398904B70}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_SlotCards_ProPanels.xlsx
+++ b/Test Data/Gallery_SlotCards_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA122148-0A44-4467-97F5-6A1CF163527A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9357ECE-C229-444F-99F9-568A34C7280C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Italy" sheetId="22" r:id="rId10"/>
     <sheet name="Spain" sheetId="23" r:id="rId11"/>
     <sheet name="Turkey" sheetId="24" r:id="rId12"/>
+    <sheet name="Croatia" sheetId="25" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -140,6 +141,12 @@
   </si>
   <si>
     <t>NGC-3191/T3320</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2415</t>
   </si>
 </sst>
 </file>
@@ -866,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C00B73-D5B6-4F07-8856-8A8398904B70}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,6 +927,102 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B27985E-643D-4787-A668-5D2FE9E1BCE5}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_SlotCards_ProPanels.xlsx
+++ b/Test Data/Gallery_SlotCards_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9357ECE-C229-444F-99F9-568A34C7280C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F181D439-C260-4C9F-8F6A-A83FDC808251}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Spain" sheetId="23" r:id="rId11"/>
     <sheet name="Turkey" sheetId="24" r:id="rId12"/>
     <sheet name="Croatia" sheetId="25" r:id="rId13"/>
+    <sheet name="Greece" sheetId="26" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -147,6 +148,12 @@
   </si>
   <si>
     <t>NGC-3139/T2415</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3167/T3166</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -969,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B27985E-643D-4787-A668-5D2FE9E1BCE5}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,6 +1023,102 @@
       </c>
       <c r="B4" s="9" t="s">
         <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF53C1F4-ABA3-46AF-8C20-22C705C6405B}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_SlotCards_ProPanels.xlsx
+++ b/Test Data/Gallery_SlotCards_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F181D439-C260-4C9F-8F6A-A83FDC808251}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A26E3E8-41A0-48BC-AD39-DAB4E082BCB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Turkey" sheetId="24" r:id="rId12"/>
     <sheet name="Croatia" sheetId="25" r:id="rId13"/>
     <sheet name="Greece" sheetId="26" r:id="rId14"/>
+    <sheet name="Netherlands" sheetId="27" r:id="rId15"/>
+    <sheet name="Austria" sheetId="28" r:id="rId16"/>
+    <sheet name="Denmark" sheetId="29" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="42">
   <si>
     <t>Wg</t>
   </si>
@@ -154,6 +157,24 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2176</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2272</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2749</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF53C1F4-ABA3-46AF-8C20-22C705C6405B}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1119,6 +1140,294 @@
       </c>
       <c r="B4" s="9" t="s">
         <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF910603-9D08-40BB-BB15-63DED568AF4D}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6B4F32-F2F8-4FFF-8B06-0CEC421A09F0}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F952DB9-2069-4776-84B6-09AB4A6C6036}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_SlotCards_ProPanels.xlsx
+++ b/Test Data/Gallery_SlotCards_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A26E3E8-41A0-48BC-AD39-DAB4E082BCB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D767C77-5694-4064-A2A9-895FBB56CB81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -30,6 +30,9 @@
     <sheet name="Netherlands" sheetId="27" r:id="rId15"/>
     <sheet name="Austria" sheetId="28" r:id="rId16"/>
     <sheet name="Denmark" sheetId="29" r:id="rId17"/>
+    <sheet name="Russia" sheetId="31" r:id="rId18"/>
+    <sheet name="Finland" sheetId="32" r:id="rId19"/>
+    <sheet name="Hungary" sheetId="33" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -175,6 +178,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T3320</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2957</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2992</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F952DB9-2069-4776-84B6-09AB4A6C6036}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1435,6 +1456,198 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8F1BFD-7041-41F0-9248-D6DCA7A1C0BF}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F3A9CF-E233-4FFC-B4AC-4316061C8620}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -1570,6 +1783,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E599757-E96E-404D-9C5F-E5AEEDAE3FA1}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A694BEDF-545C-4158-BDCD-F8A127BA31AE}">
   <dimension ref="A1:D11"/>

--- a/Test Data/Gallery_SlotCards_ProPanels.xlsx
+++ b/Test Data/Gallery_SlotCards_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D767C77-5694-4064-A2A9-895FBB56CB81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBD84EB-078B-4AAA-9A1C-8A38E9D3158D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="20" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -33,6 +33,8 @@
     <sheet name="Russia" sheetId="31" r:id="rId18"/>
     <sheet name="Finland" sheetId="32" r:id="rId19"/>
     <sheet name="Hungary" sheetId="33" r:id="rId20"/>
+    <sheet name="Norway" sheetId="34" r:id="rId21"/>
+    <sheet name="Poland" sheetId="35" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="52">
   <si>
     <t>Wg</t>
   </si>
@@ -196,6 +198,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3061</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3104</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1787,7 +1801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E599757-E96E-404D-9C5F-E5AEEDAE3FA1}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1841,6 +1855,198 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C6421D-0C83-4B1D-A7BD-7D32CE1B543B}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF17B199-2762-4A89-886B-0FCB1F99639A}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_SlotCards_ProPanels.xlsx
+++ b/Test Data/Gallery_SlotCards_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBD84EB-078B-4AAA-9A1C-8A38E9D3158D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E114F7EE-100F-43FF-96BB-64E3CD400042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="20" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="22" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="8" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="Hungary" sheetId="33" r:id="rId20"/>
     <sheet name="Norway" sheetId="34" r:id="rId21"/>
     <sheet name="Poland" sheetId="35" r:id="rId22"/>
+    <sheet name="UK" sheetId="36" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -210,6 +211,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3343/T3339</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C6421D-0C83-4B1D-A7BD-7D32CE1B543B}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2040,6 +2047,102 @@
       </c>
       <c r="B4" s="9" t="s">
         <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98B7A77-7164-4530-A045-3EE62AEB0746}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
